--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd86-Cd28.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd86-Cd28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Cd28</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>73.7510927145165</v>
+        <v>81.47348266666667</v>
       </c>
       <c r="H2">
-        <v>73.7510927145165</v>
+        <v>244.420448</v>
       </c>
       <c r="I2">
-        <v>0.3400050334447254</v>
+        <v>0.3594530042390097</v>
       </c>
       <c r="J2">
-        <v>0.3400050334447254</v>
+        <v>0.3594530042390096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.57637203288784</v>
+        <v>4.430875666666666</v>
       </c>
       <c r="N2">
-        <v>3.57637203288784</v>
+        <v>13.292627</v>
       </c>
       <c r="O2">
-        <v>0.3156648814125699</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="P2">
-        <v>0.3156648814125699</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="Q2">
-        <v>263.761345379115</v>
+        <v>360.9988718263218</v>
       </c>
       <c r="R2">
-        <v>263.761345379115</v>
+        <v>3248.989846436896</v>
       </c>
       <c r="S2">
-        <v>0.1073276485620061</v>
+        <v>0.1283197057603334</v>
       </c>
       <c r="T2">
-        <v>0.1073276485620061</v>
+        <v>0.1283197057603333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>73.7510927145165</v>
+        <v>81.47348266666667</v>
       </c>
       <c r="H3">
-        <v>73.7510927145165</v>
+        <v>244.420448</v>
       </c>
       <c r="I3">
-        <v>0.3400050334447254</v>
+        <v>0.3594530042390097</v>
       </c>
       <c r="J3">
-        <v>0.3400050334447254</v>
+        <v>0.3594530042390096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.02345005547408</v>
+        <v>7.025118333333332</v>
       </c>
       <c r="N3">
-        <v>7.02345005547408</v>
+        <v>21.075355</v>
       </c>
       <c r="O3">
-        <v>0.6199177570120159</v>
+        <v>0.5659985489733577</v>
       </c>
       <c r="P3">
-        <v>0.6199177570120159</v>
+        <v>0.5659985489733576</v>
       </c>
       <c r="Q3">
-        <v>517.9871162170449</v>
+        <v>572.3608567621155</v>
       </c>
       <c r="R3">
-        <v>517.9871162170449</v>
+        <v>5151.247710859039</v>
       </c>
       <c r="S3">
-        <v>0.2107751577058496</v>
+        <v>0.2034498788233937</v>
       </c>
       <c r="T3">
-        <v>0.2107751577058496</v>
+        <v>0.2034498788233936</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>73.7510927145165</v>
+        <v>81.47348266666667</v>
       </c>
       <c r="H4">
-        <v>73.7510927145165</v>
+        <v>244.420448</v>
       </c>
       <c r="I4">
-        <v>0.3400050334447254</v>
+        <v>0.3594530042390097</v>
       </c>
       <c r="J4">
-        <v>0.3400050334447254</v>
+        <v>0.3594530042390096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7298260400073791</v>
+        <v>0.950574</v>
       </c>
       <c r="N4">
-        <v>0.7298260400073791</v>
+        <v>2.851722</v>
       </c>
       <c r="O4">
-        <v>0.06441736157541413</v>
+        <v>0.0765856857013987</v>
       </c>
       <c r="P4">
-        <v>0.06441736157541413</v>
+        <v>0.07658568570139869</v>
       </c>
       <c r="Q4">
-        <v>53.82546794205264</v>
+        <v>77.446574312384</v>
       </c>
       <c r="R4">
-        <v>53.82546794205264</v>
+        <v>697.019168811456</v>
       </c>
       <c r="S4">
-        <v>0.02190222717686965</v>
+        <v>0.02752895480707233</v>
       </c>
       <c r="T4">
-        <v>0.02190222717686965</v>
+        <v>0.02752895480707232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.081967889139</v>
+        <v>81.47348266666667</v>
       </c>
       <c r="H5">
-        <v>122.081967889139</v>
+        <v>244.420448</v>
       </c>
       <c r="I5">
-        <v>0.5628185569510136</v>
+        <v>0.3594530042390097</v>
       </c>
       <c r="J5">
-        <v>0.5628185569510136</v>
+        <v>0.3594530042390096</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.57637203288784</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="N5">
-        <v>3.57637203288784</v>
+        <v>0.016001</v>
       </c>
       <c r="O5">
-        <v>0.3156648814125699</v>
+        <v>0.0004297219563856788</v>
       </c>
       <c r="P5">
-        <v>0.3156648814125699</v>
+        <v>0.0004297219563856788</v>
       </c>
       <c r="Q5">
-        <v>436.610535678628</v>
+        <v>0.4345523987164445</v>
       </c>
       <c r="R5">
-        <v>436.610535678628</v>
+        <v>3.910971588448</v>
       </c>
       <c r="S5">
-        <v>0.1776620530367354</v>
+        <v>0.000154464848210297</v>
       </c>
       <c r="T5">
-        <v>0.1776620530367354</v>
+        <v>0.0001544648482102969</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>122.081967889139</v>
+        <v>123.2241746666667</v>
       </c>
       <c r="H6">
-        <v>122.081967889139</v>
+        <v>369.672524</v>
       </c>
       <c r="I6">
-        <v>0.5628185569510136</v>
+        <v>0.5436529571225457</v>
       </c>
       <c r="J6">
-        <v>0.5628185569510136</v>
+        <v>0.5436529571225457</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.02345005547408</v>
+        <v>4.430875666666666</v>
       </c>
       <c r="N6">
-        <v>7.02345005547408</v>
+        <v>13.292627</v>
       </c>
       <c r="O6">
-        <v>0.6199177570120159</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="P6">
-        <v>0.6199177570120159</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="Q6">
-        <v>857.4366041433581</v>
+        <v>545.9909970756164</v>
       </c>
       <c r="R6">
-        <v>857.4366041433581</v>
+        <v>4913.918973680548</v>
       </c>
       <c r="S6">
-        <v>0.3489012174298118</v>
+        <v>0.194076518128957</v>
       </c>
       <c r="T6">
-        <v>0.3489012174298118</v>
+        <v>0.1940765181289569</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>122.081967889139</v>
+        <v>123.2241746666667</v>
       </c>
       <c r="H7">
-        <v>122.081967889139</v>
+        <v>369.672524</v>
       </c>
       <c r="I7">
-        <v>0.5628185569510136</v>
+        <v>0.5436529571225457</v>
       </c>
       <c r="J7">
-        <v>0.5628185569510136</v>
+        <v>0.5436529571225457</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7298260400073791</v>
+        <v>7.025118333333332</v>
       </c>
       <c r="N7">
-        <v>0.7298260400073791</v>
+        <v>21.075355</v>
       </c>
       <c r="O7">
-        <v>0.06441736157541413</v>
+        <v>0.5659985489733577</v>
       </c>
       <c r="P7">
-        <v>0.06441736157541413</v>
+        <v>0.5659985489733576</v>
       </c>
       <c r="Q7">
-        <v>89.09859918083832</v>
+        <v>865.6644085606688</v>
       </c>
       <c r="R7">
-        <v>89.09859918083832</v>
+        <v>7790.97967704602</v>
       </c>
       <c r="S7">
-        <v>0.03625528648446625</v>
+        <v>0.3077067848764359</v>
       </c>
       <c r="T7">
-        <v>0.03625528648446625</v>
+        <v>0.3077067848764358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.0787067525952</v>
+        <v>123.2241746666667</v>
       </c>
       <c r="H8">
-        <v>21.0787067525952</v>
+        <v>369.672524</v>
       </c>
       <c r="I8">
-        <v>0.09717640960426105</v>
+        <v>0.5436529571225457</v>
       </c>
       <c r="J8">
-        <v>0.09717640960426105</v>
+        <v>0.5436529571225457</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.57637203288784</v>
+        <v>0.950574</v>
       </c>
       <c r="N8">
-        <v>3.57637203288784</v>
+        <v>2.851722</v>
       </c>
       <c r="O8">
-        <v>0.3156648814125699</v>
+        <v>0.0765856857013987</v>
       </c>
       <c r="P8">
-        <v>0.3156648814125699</v>
+        <v>0.07658568570139869</v>
       </c>
       <c r="Q8">
-        <v>75.38529731942553</v>
+        <v>117.133696609592</v>
       </c>
       <c r="R8">
-        <v>75.38529731942553</v>
+        <v>1054.203269486328</v>
       </c>
       <c r="S8">
-        <v>0.03067517981382839</v>
+        <v>0.04163603450482327</v>
       </c>
       <c r="T8">
-        <v>0.03067517981382839</v>
+        <v>0.04163603450482326</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.0787067525952</v>
+        <v>123.2241746666667</v>
       </c>
       <c r="H9">
-        <v>21.0787067525952</v>
+        <v>369.672524</v>
       </c>
       <c r="I9">
-        <v>0.09717640960426105</v>
+        <v>0.5436529571225457</v>
       </c>
       <c r="J9">
-        <v>0.09717640960426105</v>
+        <v>0.5436529571225457</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>7.02345005547408</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="N9">
-        <v>7.02345005547408</v>
+        <v>0.016001</v>
       </c>
       <c r="O9">
-        <v>0.6199177570120159</v>
+        <v>0.0004297219563856788</v>
       </c>
       <c r="P9">
-        <v>0.6199177570120159</v>
+        <v>0.0004297219563856788</v>
       </c>
       <c r="Q9">
-        <v>148.0452441108366</v>
+        <v>0.6572366729471112</v>
       </c>
       <c r="R9">
-        <v>148.0452441108366</v>
+        <v>5.915130056524001</v>
       </c>
       <c r="S9">
-        <v>0.06024138187635443</v>
+        <v>0.0002336196123295599</v>
       </c>
       <c r="T9">
-        <v>0.06024138187635443</v>
+        <v>0.0002336196123295599</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>21.96196633333333</v>
+      </c>
+      <c r="H10">
+        <v>65.88589899999999</v>
+      </c>
+      <c r="I10">
+        <v>0.0968940386384447</v>
+      </c>
+      <c r="J10">
+        <v>0.09689403863844469</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.430875666666666</v>
+      </c>
+      <c r="N10">
+        <v>13.292627</v>
+      </c>
+      <c r="O10">
+        <v>0.3569860433688579</v>
+      </c>
+      <c r="P10">
+        <v>0.3569860433688579</v>
+      </c>
+      <c r="Q10">
+        <v>97.31074221851921</v>
+      </c>
+      <c r="R10">
+        <v>875.7966799666729</v>
+      </c>
+      <c r="S10">
+        <v>0.03458981947956762</v>
+      </c>
+      <c r="T10">
+        <v>0.0345898194795676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>21.0787067525952</v>
-      </c>
-      <c r="H10">
-        <v>21.0787067525952</v>
-      </c>
-      <c r="I10">
-        <v>0.09717640960426105</v>
-      </c>
-      <c r="J10">
-        <v>0.09717640960426105</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.7298260400073791</v>
-      </c>
-      <c r="N10">
-        <v>0.7298260400073791</v>
-      </c>
-      <c r="O10">
-        <v>0.06441736157541413</v>
-      </c>
-      <c r="P10">
-        <v>0.06441736157541413</v>
-      </c>
-      <c r="Q10">
-        <v>15.38378907772336</v>
-      </c>
-      <c r="R10">
-        <v>15.38378907772336</v>
-      </c>
-      <c r="S10">
-        <v>0.00625984791407823</v>
-      </c>
-      <c r="T10">
-        <v>0.00625984791407823</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>21.96196633333333</v>
+      </c>
+      <c r="H11">
+        <v>65.88589899999999</v>
+      </c>
+      <c r="I11">
+        <v>0.0968940386384447</v>
+      </c>
+      <c r="J11">
+        <v>0.09689403863844469</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.025118333333332</v>
+      </c>
+      <c r="N11">
+        <v>21.075355</v>
+      </c>
+      <c r="O11">
+        <v>0.5659985489733577</v>
+      </c>
+      <c r="P11">
+        <v>0.5659985489733576</v>
+      </c>
+      <c r="Q11">
+        <v>154.2854123243494</v>
+      </c>
+      <c r="R11">
+        <v>1388.568710919145</v>
+      </c>
+      <c r="S11">
+        <v>0.05484188527352815</v>
+      </c>
+      <c r="T11">
+        <v>0.05484188527352814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>21.96196633333333</v>
+      </c>
+      <c r="H12">
+        <v>65.88589899999999</v>
+      </c>
+      <c r="I12">
+        <v>0.0968940386384447</v>
+      </c>
+      <c r="J12">
+        <v>0.09689403863844469</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.950574</v>
+      </c>
+      <c r="N12">
+        <v>2.851722</v>
+      </c>
+      <c r="O12">
+        <v>0.0765856857013987</v>
+      </c>
+      <c r="P12">
+        <v>0.07658568570139869</v>
+      </c>
+      <c r="Q12">
+        <v>20.876474185342</v>
+      </c>
+      <c r="R12">
+        <v>187.888267668078</v>
+      </c>
+      <c r="S12">
+        <v>0.007420696389503108</v>
+      </c>
+      <c r="T12">
+        <v>0.007420696389503105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>21.96196633333333</v>
+      </c>
+      <c r="H13">
+        <v>65.88589899999999</v>
+      </c>
+      <c r="I13">
+        <v>0.0968940386384447</v>
+      </c>
+      <c r="J13">
+        <v>0.09689403863844469</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.005333666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.016001</v>
+      </c>
+      <c r="O13">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="P13">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="Q13">
+        <v>0.1171378077665556</v>
+      </c>
+      <c r="R13">
+        <v>1.054240269899</v>
+      </c>
+      <c r="S13">
+        <v>4.163749584582201E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.1637495845822E-05</v>
       </c>
     </row>
   </sheetData>
